--- a/Content/TableData/Resource_Widget.xlsx
+++ b/Content/TableData/Resource_Widget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80968B52-2E0A-4FF8-B696-555BFFD57444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E93F2-6927-4BA8-8E42-48894EFCCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77CFB8-BF88-4E5D-975C-E2BD4198694A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,6 +517,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/TableData/Resource_Widget.xlsx
+++ b/Content/TableData/Resource_Widget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E93F2-6927-4BA8-8E42-48894EFCCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470037E-30A4-42C4-BDF3-7C8CCA27CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>Logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldMapIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77CFB8-BF88-4E5D-975C-E2BD4198694A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,6 +545,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/TableData/Resource_Widget.xlsx
+++ b/Content/TableData/Resource_Widget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470037E-30A4-42C4-BDF3-7C8CCA27CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5DA21A-8A6F-43CE-A14F-55C4F21E52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +85,14 @@
   </si>
   <si>
     <t>WorldMapIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcInteraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcInteractionItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +201,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -301,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77CFB8-BF88-4E5D-975C-E2BD4198694A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
@@ -585,8 +591,49 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Content/TableData/Resource_Widget.xlsx
+++ b/Content/TableData/Resource_Widget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5DA21A-8A6F-43CE-A14F-55C4F21E52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C0F1D-F7AC-4192-826C-ABBED9538BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>NpcInteractionItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemPopup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77CFB8-BF88-4E5D-975C-E2BD4198694A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,6 +635,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/TableData/Resource_Widget.xlsx
+++ b/Content/TableData/Resource_Widget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C0F1D-F7AC-4192-826C-ABBED9538BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC837F1-6839-4697-A851-394B8DF84EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B041FF14-4793-4895-B35F-0C41E85F0903}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>SystemPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainHud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +468,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,6 +639,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1000</v>
